--- a/C066_金魚すくい.xlsx
+++ b/C066_金魚すくい.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26012"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{BEF21A30-36C1-4FD2-AB74-5B9BEAC9AE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A84F457-803E-4213-B01E-10CA90E72107}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFFB62F-972D-4B1D-9040-BEB3E9115FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,18 +30,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
+    <t>金魚の数M</t>
+  </si>
+  <si>
+    <t>goldfish_number</t>
+  </si>
+  <si>
     <t>ポイの数 N</t>
   </si>
   <si>
     <t>fish_net</t>
   </si>
   <si>
-    <t>金魚の数M</t>
-  </si>
-  <si>
-    <t>goldfish_number</t>
-  </si>
-  <si>
     <t>金魚の重さ</t>
   </si>
   <si>
@@ -60,7 +60,7 @@
     <t>step1</t>
   </si>
   <si>
-    <t>C066_input</t>
+    <t>input_file</t>
   </si>
   <si>
     <t>データファイルからヘッダを取得</t>
@@ -69,7 +69,7 @@
     <t>step2</t>
   </si>
   <si>
-    <t>C066_HeadData_split</t>
+    <t>HeadData_split</t>
   </si>
   <si>
     <t>ヘッダからポイの数 金魚の数 ポイの耐久性を分割する</t>
@@ -78,7 +78,7 @@
     <t>step3</t>
   </si>
   <si>
-    <t>C066_Goldfish_Data_split</t>
+    <t>Goldfish_Data_split</t>
   </si>
   <si>
     <t>データファイルの金魚の重さのデータとヘッダを分割する。</t>
@@ -87,7 +87,7 @@
     <t>step4</t>
   </si>
   <si>
-    <t>C066_scoop_goldfish</t>
+    <t>scoop_goldfish</t>
   </si>
   <si>
     <t>ポイがなくなるまで金魚すくいをする</t>
@@ -96,7 +96,7 @@
     <t>step5</t>
   </si>
   <si>
-    <t>C066_success_scoop_goldfish</t>
+    <t>success_scoop_goldfish</t>
   </si>
   <si>
     <t>ポイがなくなったらすくえた金魚の数を表示する</t>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
